--- a/inputs/shocks_demand_05072024.xlsx
+++ b/inputs/shocks_demand_05072024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celia/Documents/These/python_projects/production_networks/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D6128-9A51-9148-95F0-6F9CA452EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382D5D6-7F8A-6648-9602-A04BAD681305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{60AB5050-07FC-AC4B-B4E9-7806B5AC1E0E}"/>
+    <workbookView xWindow="-50280" yWindow="-3580" windowWidth="38420" windowHeight="22820" activeTab="2" xr2:uid="{60AB5050-07FC-AC4B-B4E9-7806B5AC1E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="sector" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <t>food</t>
   </si>
   <si>
-    <t>combined</t>
+    <t>energyservices</t>
   </si>
 </sst>
 </file>
@@ -862,13 +862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCAEB06-5E2B-D646-9BAF-A623A77A834E}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1.25</v>
@@ -977,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0.72</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
@@ -1075,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0.31</v>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0.51</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>0.63</v>
@@ -1159,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1355,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>0.31</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>0.51</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>0.63</v>
@@ -1509,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>0.84</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>0.95</v>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>1.25</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>0.72</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>0.62</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>0.5</v>
@@ -1607,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>1.81</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>1.81</v>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>0.49</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>0.7</v>
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,10 +2447,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,10 +2475,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>1.0241499999999999</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
-        <v>1.01919</v>
+        <v>1.0181899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21CDE30-A18D-5E45-AB39-E8008B9C7911}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2605,7 +2605,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="C2">
-        <v>0.93300000000000005</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2616,10 +2616,10 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>1.00884</v>
+        <v>1.00823</v>
       </c>
       <c r="C3">
-        <v>1.0103800000000001</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2634,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFB6EF1-C977-3F4B-91F5-B027D81E3BFA}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.013107</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2695,13 +2695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FC08E-73A9-7A46-93BC-175C4C0DF384}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1.25</v>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0.72</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0.31</v>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0.51</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>0.63</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>0.31</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>0.51</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>0.63</v>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>0.84</v>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>0.95</v>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>1.25</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>0.72</v>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>0.62</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>0.5</v>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>1.81</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>1.81</v>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>0.49</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>0.7</v>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -4413,7 +4413,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="C2">
-        <v>0.93300000000000005</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4468,7 +4468,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4528,13 +4528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38AB154-772E-DA4D-BC36-A48F8E198A6E}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107:C121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1.018357</v>
@@ -4573,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1.018357</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>1.018357</v>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1.018357</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1.25</v>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1.018357</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1.018357</v>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1.018357</v>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>1.018357</v>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>1.018357</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0.72</v>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1.018357</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>1.018357</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0.31</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>1.018357</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0.51</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>0.63</v>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>1.018357</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>1.018357</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>1.018357</v>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1.018357</v>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>1.018357</v>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>1.018357</v>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>1.018357</v>
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1.018357</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>1.018357</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>1.018357</v>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>1.018357</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>1.018357</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>1.018357</v>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>1.018357</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>1.018357</v>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>1.018357</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>1.018357</v>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>0.31</v>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>1.018357</v>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>0.51</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>0.63</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>1.018357</v>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>0.84</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>0.95</v>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>1.25</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>0.72</v>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>0.62</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>0.5</v>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>1.018357</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>1.81</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>1.81</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>0.49</v>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>0.7</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
         <v>1.018357</v>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>1.018357</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>1.018357</v>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>1.018357</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>1.018357</v>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>1.018357</v>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>1.018357</v>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>1.018357</v>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>1.018357</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>1.018357</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>1.018357</v>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>1.018357</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>1.018357</v>
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>1.018357</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>1.018357</v>
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>1.018357</v>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>1.018357</v>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
         <v>1.018357</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
         <v>1.018357</v>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>1.018357</v>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>1.018357</v>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>1.018357</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
         <v>1.018357</v>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>1.018357</v>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>1.018357</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>1.018357</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>1.018357</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
         <v>1.018357</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
         <v>1.018357</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
         <v>1.018357</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
         <v>1.018357</v>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
         <v>1.018357</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>1.018357</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
         <v>1.018357</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
         <v>1.018357</v>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1">
         <v>1.018357</v>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
         <v>1.018357</v>
@@ -6043,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>1.018357</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>1.018357</v>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>1.018357</v>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>1.018357</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>1.018357</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
         <v>1.018357</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
         <v>1.018357</v>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
         <v>1.018357</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
         <v>1.018357</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1">
         <v>1.018357</v>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1">
         <v>1.018357</v>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>1.018357</v>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>1.018357</v>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>1.0242899999999999</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
         <v>1.018357</v>
@@ -6241,12 +6241,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="C2">
-        <v>0.93300000000000005</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6285,7 +6285,7 @@
         <v>1.0085500000000001</v>
       </c>
       <c r="C3">
-        <v>1.0085500000000001</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6301,7 +6301,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D2">
         <v>1</v>
